--- a/data/financial_statements/soci/VTR.xlsx
+++ b/data/financial_statements/soci/VTR.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,144 +613,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1037276000</v>
+        <v>1037000000</v>
       </c>
       <c r="C2">
-        <v>1022938000</v>
+        <v>1023000000</v>
       </c>
       <c r="D2">
-        <v>1017554000</v>
+        <v>1018000000</v>
       </c>
       <c r="E2">
-        <v>1022444000</v>
+        <v>1022000000</v>
       </c>
       <c r="F2">
-        <v>976078000</v>
+        <v>976000000</v>
       </c>
       <c r="G2">
         <v>919194000</v>
@@ -745,23 +856,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.06270000000000001</v>
+        <v>0.0625</v>
       </c>
       <c r="C3">
         <v>0.1129</v>
       </c>
       <c r="D3">
-        <v>0.1178</v>
+        <v>0.1183</v>
       </c>
       <c r="E3">
-        <v>0.1099</v>
+        <v>0.1095</v>
       </c>
       <c r="F3">
-        <v>0.0622</v>
+        <v>0.0621</v>
       </c>
       <c r="G3">
         <v>-0.0254</v>
@@ -867,8 +978,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>71604000</v>
@@ -989,8 +1100,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>965672000</v>
@@ -1111,8 +1222,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>35421000</v>
@@ -1233,8 +1344,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>128798000</v>
@@ -1355,8 +1466,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>119413000</v>
@@ -1477,23 +1588,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>-133868000</v>
+        <v>33000000</v>
       </c>
       <c r="C9">
-        <v>-175090000</v>
+        <v>26000000</v>
       </c>
       <c r="D9">
-        <v>-103542000</v>
+        <v>34000000</v>
       </c>
       <c r="E9">
-        <v>-158558000</v>
+        <v>68000000</v>
       </c>
       <c r="F9">
-        <v>-194883000</v>
+        <v>128000000</v>
       </c>
       <c r="G9">
         <v>-97149000</v>
@@ -1599,8 +1710,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>136000</v>
@@ -1649,23 +1760,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>-5070000</v>
+        <v>-3000000</v>
       </c>
       <c r="C11">
-        <v>-43911000</v>
+        <v>-45000000</v>
       </c>
       <c r="D11">
-        <v>37916000</v>
+        <v>36000000</v>
       </c>
       <c r="E11">
-        <v>-66251000</v>
+        <v>-44000000</v>
       </c>
       <c r="F11">
-        <v>-86510000</v>
+        <v>67000000</v>
       </c>
       <c r="G11">
         <v>45904000</v>
@@ -1771,8 +1882,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>-6027000</v>
@@ -1893,8 +2004,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>957000</v>
@@ -2015,8 +2126,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>1970000</v>
@@ -2137,8 +2248,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2178,8 +2289,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1807000</v>
@@ -2300,23 +2411,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>1256000</v>
+        <v>1000000</v>
       </c>
       <c r="C17">
-        <v>-42416000</v>
+        <v>-42000000</v>
       </c>
       <c r="D17">
-        <v>38732000</v>
+        <v>39000000</v>
       </c>
       <c r="E17">
-        <v>-40854000</v>
+        <v>-41000000</v>
       </c>
       <c r="F17">
-        <v>60680000</v>
+        <v>61000000</v>
       </c>
       <c r="G17">
         <v>86391000</v>
@@ -2422,8 +2533,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2544,8 +2655,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2666,23 +2777,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>399646000</v>
+        <v>400000000</v>
       </c>
       <c r="C20">
-        <v>399592000</v>
+        <v>400000000</v>
       </c>
       <c r="D20">
-        <v>399297000</v>
+        <v>399000000</v>
       </c>
       <c r="E20">
-        <v>382785000</v>
+        <v>399000000</v>
       </c>
       <c r="F20">
-        <v>381996000</v>
+        <v>382000000</v>
       </c>
       <c r="G20">
         <v>375067000</v>
@@ -2788,23 +2899,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>403543000</v>
+        <v>404000000</v>
       </c>
       <c r="C21">
-        <v>403526000</v>
+        <v>400000000</v>
       </c>
       <c r="D21">
-        <v>403260000</v>
+        <v>403000000</v>
       </c>
       <c r="E21">
-        <v>386304000</v>
+        <v>399000000</v>
       </c>
       <c r="F21">
-        <v>385523000</v>
+        <v>386000000</v>
       </c>
       <c r="G21">
         <v>378408000</v>
@@ -2910,23 +3021,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.931</v>
+        <v>0.9312</v>
       </c>
       <c r="C22">
         <v>0.9332</v>
       </c>
       <c r="D22">
-        <v>0.9327</v>
+        <v>0.9323</v>
       </c>
       <c r="E22">
-        <v>0.9343</v>
+        <v>0.9347</v>
       </c>
       <c r="F22">
-        <v>0.9281</v>
+        <v>0.9282</v>
       </c>
       <c r="G22">
         <v>0.9238</v>
@@ -3032,8 +3143,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.1242</v>
@@ -3154,23 +3265,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>-0.0049</v>
+        <v>-0.0029</v>
       </c>
       <c r="C24">
-        <v>-0.0429</v>
+        <v>-0.044</v>
       </c>
       <c r="D24">
-        <v>0.0373</v>
+        <v>0.0354</v>
       </c>
       <c r="E24">
-        <v>-0.0648</v>
+        <v>-0.0431</v>
       </c>
       <c r="F24">
-        <v>-0.0886</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="G24">
         <v>0.0499</v>
@@ -3276,23 +3387,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>0.0012</v>
+        <v>0.001</v>
       </c>
       <c r="C25">
-        <v>-0.0415</v>
+        <v>-0.0411</v>
       </c>
       <c r="D25">
-        <v>0.0381</v>
+        <v>0.0383</v>
       </c>
       <c r="E25">
-        <v>-0.04</v>
+        <v>-0.0401</v>
       </c>
       <c r="F25">
-        <v>0.0622</v>
+        <v>0.0625</v>
       </c>
       <c r="G25">
         <v>0.094</v>
@@ -3398,8 +3509,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>418379000</v>
@@ -3520,8 +3631,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>128798000</v>
@@ -3642,8 +3753,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>3063000</v>
@@ -3764,8 +3875,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -3841,23 +3952,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>3063000</v>
+        <v>3000000</v>
       </c>
       <c r="C30">
-        <v>-41202000</v>
+        <v>-41000000</v>
       </c>
       <c r="D30">
-        <v>40592000</v>
+        <v>41000000</v>
       </c>
       <c r="E30">
-        <v>-39105000</v>
+        <v>-39000000</v>
       </c>
       <c r="F30">
-        <v>62774000</v>
+        <v>63000000</v>
       </c>
       <c r="G30">
         <v>88288000</v>
@@ -3963,8 +4074,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.01</v>
@@ -4085,8 +4196,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.01</v>
@@ -4207,8 +4318,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="J33">
         <v>0.04</v>
@@ -4287,8 +4398,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -4358,8 +4469,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0.0077</v>
@@ -4480,8 +4591,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>0.0076</v>
@@ -4602,8 +4713,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>403543000</v>
@@ -4724,23 +4835,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>0.4033</v>
+        <v>0.4035</v>
       </c>
       <c r="C38">
-        <v>0.3925</v>
+        <v>0.3924</v>
       </c>
       <c r="D38">
-        <v>0.409</v>
+        <v>0.4089</v>
       </c>
       <c r="E38">
-        <v>0.3884</v>
+        <v>0.3886</v>
       </c>
       <c r="F38">
-        <v>0.3959</v>
+        <v>0.396</v>
       </c>
       <c r="G38">
         <v>0.4154</v>
@@ -4846,23 +4957,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>0.2895</v>
+        <v>0.2896</v>
       </c>
       <c r="C39">
         <v>0.2718</v>
       </c>
       <c r="D39">
-        <v>0.2698</v>
+        <v>0.2697</v>
       </c>
       <c r="E39">
-        <v>0.26</v>
+        <v>0.2601</v>
       </c>
       <c r="F39">
-        <v>0.2371</v>
+        <v>0.2372</v>
       </c>
       <c r="G39">
         <v>0.3169</v>
